--- a/CDT_System/Reports/export_polarionspec.xlsx
+++ b/CDT_System/Reports/export_polarionspec.xlsx
@@ -1167,7 +1167,7 @@
         <is>
           <t>{
     'type': 'text/html',
-    'content': 'The system shall be able to notify the trainer that a concussion as been detected within 2 seconds.',
+    'content': 'The system shall be able to notify the trainer that a concussion as been detected within 3 seconds of impact to the helmet.',
     'contentLossy': False
 }</t>
         </is>
@@ -1196,7 +1196,15 @@
                 'id': 'implements'
             },
             'suspect': False,
-            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-504'
+            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-533'
+        },
+        {
+            'revision': None,
+            'role': {
+                'id': 'implements'
+            },
+            'suspect': False,
+            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-536'
         },
         {
             'revision': None,
@@ -1227,7 +1235,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2022/09/30, 15:56:38</t>
+          <t>2022/10/21, 14:46:38</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1290,23 +1298,7 @@
                 'id': 'implements'
             },
             'suspect': False,
-            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-505'
-        },
-        {
-            'revision': None,
-            'role': {
-                'id': 'implements'
-            },
-            'suspect': False,
-            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-506'
-        },
-        {
-            'revision': None,
-            'role': {
-                'id': 'implements'
-            },
-            'suspect': False,
-            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-507'
+            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-531'
         },
         {
             'revision': None,
@@ -1337,7 +1329,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2022/09/30, 15:57:25</t>
+          <t>2022/10/17, 16:27:03</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1527,7 +1519,7 @@
         <is>
           <t>{
     'type': 'text/html',
-    'content': 'Here is the new requirement.',
+    'content': 'Here is the new requirement with no links.',
     'contentLossy': False
 }</t>
         </is>
@@ -1550,6 +1542,14 @@
         <is>
           <t>{
     'LinkedWorkItem': [
+        {
+            'revision': None,
+            'role': {
+                'id': 'implements'
+            },
+            'suspect': False,
+            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-538'
+        },
         {
             'revision': None,
             'role': {
@@ -1579,7 +1579,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2022/09/29, 14:15:03</t>
+          <t>2022/10/21, 14:49:46</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1642,7 +1642,7 @@
                 'id': 'implements'
             },
             'suspect': False,
-            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-508'
+            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-531'
         },
         {
             'revision': None,
@@ -1650,7 +1650,7 @@
                 'id': 'implements'
             },
             'suspect': False,
-            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-509'
+            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-537'
         },
         {
             'revision': None,
@@ -1681,7 +1681,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2022/09/30, 15:57:53</t>
+          <t>2022/10/18, 02:03:42</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1744,7 +1744,7 @@
                 'id': 'implements'
             },
             'suspect': False,
-            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-510'
+            'workItemURI': 'subterra:data-service:objects:/default/ConcussionDetectionSystem${WorkItem}CDS-533'
         },
         {
             'revision': None,
@@ -1775,7 +1775,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>2022/09/30, 15:58:07</t>
+          <t>2022/10/12, 01:34:10</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
